--- a/excel/1.xlsx
+++ b/excel/1.xlsx
@@ -2,24 +2,24 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\project\Genie\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19275" windowHeight="7665"/>
   </bookViews>
   <sheets>
-    <sheet name="1" sheetId="1" r:id="rId1"/>
+    <sheet name="Form_data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>序号</t>
   </si>
@@ -36,12 +36,15 @@
     <t>??????????????请选择您的心愿类型</t>
   </si>
   <si>
-    <t>您的脱单心愿描述示例：灯神啊灯神，我想找________，报答是（一顿饭，一首歌，一个小礼物等等，也可不写）</t>
+    <t>您的脱单心愿描述示例：灯神啊灯神，我是______，想找______，因为_______</t>
   </si>
   <si>
     <t>如心愿需要说明，就上传一张合适的图片</t>
   </si>
   <si>
+    <t>有诚意的心愿更容易实现哦，如果有人帮主人实现了心愿，您会用什么来报答TA？（一顿饭，一首歌，一个小礼物都不错哦~ 也可以私下协商或者无）</t>
+  </si>
+  <si>
     <t>修改人</t>
   </si>
   <si>
@@ -66,27 +69,22 @@
     <t>男生</t>
   </si>
   <si>
-    <t>初一</t>
-  </si>
-  <si>
-    <t>哪一个</t>
-  </si>
-  <si>
-    <t>求组队（求约，陪练，找队友）</t>
-  </si>
-  <si>
-    <t>你英语</t>
+    <t>初二</t>
+  </si>
+  <si>
+    <t>脱单（非诚勿扰栏目）</t>
+  </si>
+  <si>
+    <t>灯神啊灯神，请给我一个男神，宁晋你就不能</t>
+  </si>
+  <si>
+    <t>IMG_201808...00.jpg</t>
+  </si>
+  <si>
+    <t>一顿饭</t>
   </si>
   <si>
     <t>上传题中的附件可至网站结果分析中点击“批量下载”按钮下载</t>
-  </si>
-  <si>
-    <t>IMG_201810...32.jpg</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>女生</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1007,24 +1005,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="28.5" customWidth="1"/>
-    <col min="2" max="2" width="25.75" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="43.75" customWidth="1"/>
-    <col min="5" max="5" width="35" customWidth="1"/>
-    <col min="6" max="6" width="31.125" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1067,93 +1054,46 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2">
+        <v>815117697</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1">
+        <v>43409.837407407409</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="1">
-        <v>43387.737118055556</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="1">
-        <v>43387.737118055556</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="1">
-        <v>43387.737118055556</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/excel/1.xlsx
+++ b/excel/1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\project\Genie\excel\"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>序号</t>
   </si>
@@ -45,46 +45,56 @@
     <t>有诚意的心愿更容易实现哦，如果有人帮主人实现了心愿，您会用什么来报答TA？（一顿饭，一首歌，一个小礼物都不错哦~ 也可以私下协商或者无）</t>
   </si>
   <si>
-    <t>修改人</t>
-  </si>
-  <si>
-    <t>修改时间</t>
-  </si>
-  <si>
     <t>创建时间</t>
   </si>
   <si>
-    <t>来源</t>
-  </si>
-  <si>
-    <t>昵称(微信)</t>
-  </si>
-  <si>
-    <t>性别(微信)</t>
-  </si>
-  <si>
-    <t>城市(微信)</t>
-  </si>
-  <si>
     <t>男生</t>
   </si>
   <si>
+    <t>初一</t>
+  </si>
+  <si>
+    <t>哪一个</t>
+  </si>
+  <si>
+    <t>求组队（求约，陪练，找队友）</t>
+  </si>
+  <si>
+    <t>IMG_201810...32.jpg</t>
+  </si>
+  <si>
     <t>初二</t>
   </si>
   <si>
     <t>脱单（非诚勿扰栏目）</t>
   </si>
   <si>
-    <t>灯神啊灯神，请给我一个男神，宁晋你就不能</t>
-  </si>
-  <si>
     <t>IMG_201808...00.jpg</t>
   </si>
   <si>
     <t>一顿饭</t>
   </si>
   <si>
+    <t>其他:校外人士</t>
+  </si>
+  <si>
     <t>上传题中的附件可至网站结果分析中点击“批量下载”按钮下载</t>
+  </si>
+  <si>
+    <t>有这周日11.11去南丰国际会展中心看狗贼的大妈或者帅哥吗hhhhh</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>一起看野猪嘤嘤嘤</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>有轮滑社的童鞋吗。我以前玩过轮滑，现在想重新开始玩，大神带我飞呀</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>请问有没有同学是粤语社的，能拉一下我进去吗！</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1005,13 +1015,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O3"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="16.875" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="31.5" customWidth="1"/>
+    <col min="7" max="7" width="44.625" customWidth="1"/>
+    <col min="8" max="8" width="55.625" customWidth="1"/>
+    <col min="9" max="9" width="19.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1039,61 +1060,99 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1">
+        <v>43387.737118055556</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>14</v>
       </c>
+      <c r="D3">
+        <v>815117697</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="1">
+        <v>43409.837407407409</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2">
-        <v>815117697</v>
-      </c>
-      <c r="E2" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>8376767677</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="I4" s="1">
+        <v>43411.633587962962</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="1">
-        <v>43409.837407407409</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/excel/1.xlsx
+++ b/excel/1.xlsx
@@ -2,24 +2,24 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\project\Genie\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19275" windowHeight="7665"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Form_data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>序号</t>
   </si>
@@ -48,53 +48,40 @@
     <t>创建时间</t>
   </si>
   <si>
-    <t>男生</t>
-  </si>
-  <si>
-    <t>初一</t>
-  </si>
-  <si>
-    <t>哪一个</t>
-  </si>
-  <si>
-    <t>求组队（求约，陪练，找队友）</t>
-  </si>
-  <si>
-    <t>IMG_201810...32.jpg</t>
-  </si>
-  <si>
-    <t>初二</t>
-  </si>
-  <si>
-    <t>脱单（非诚勿扰栏目）</t>
-  </si>
-  <si>
-    <t>IMG_201808...00.jpg</t>
-  </si>
-  <si>
-    <t>一顿饭</t>
-  </si>
-  <si>
-    <t>其他:校外人士</t>
+    <t>女生</t>
+  </si>
+  <si>
+    <t>初三</t>
+  </si>
+  <si>
+    <t>找Ta（交朋友，寻人）</t>
+  </si>
+  <si>
+    <t>c2103875498</t>
+  </si>
+  <si>
+    <t>灯神啊灯神，是是一个女生，想找一个小哥哥，因为我想他陪我学习</t>
+  </si>
+  <si>
+    <t>mmexport15...40.jpg</t>
+  </si>
+  <si>
+    <t>看对方想要什么，不过分就行</t>
+  </si>
+  <si>
+    <t>zxcv99908</t>
+  </si>
+  <si>
+    <t>一个可以谈心可以开黑可以瞎逼逼的人</t>
+  </si>
+  <si>
+    <t>F52A9225-9...F.jpeg</t>
+  </si>
+  <si>
+    <t>唱歌吧</t>
   </si>
   <si>
     <t>上传题中的附件可至网站结果分析中点击“批量下载”按钮下载</t>
-  </si>
-  <si>
-    <t>有这周日11.11去南丰国际会展中心看狗贼的大妈或者帅哥吗hhhhh</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>一起看野猪嘤嘤嘤</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>有轮滑社的童鞋吗。我以前玩过轮滑，现在想重新开始玩，大神带我飞呀</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>请问有没有同学是粤语社的，能拉一下我进去吗！</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1015,22 +1002,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="16.875" customWidth="1"/>
-    <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="31.5" customWidth="1"/>
-    <col min="7" max="7" width="44.625" customWidth="1"/>
-    <col min="8" max="8" width="55.625" customWidth="1"/>
-    <col min="9" max="9" width="19.875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
@@ -1063,7 +1041,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -1072,87 +1050,60 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I2" s="1">
-        <v>43387.737118055556</v>
+        <v>43428.852395833332</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3">
-        <v>815117697</v>
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I3" s="1">
-        <v>43409.837407407409</v>
+        <v>43430.013912037037</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4">
-        <v>8376767677</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="1">
-        <v>43411.633587962962</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>19</v>
+      <c r="A4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>